--- a/config_7.13/item_config.xlsx
+++ b/config_7.13/item_config.xlsx
@@ -2367,7 +2367,7 @@
     <t>3dby_icon_yu34</t>
   </si>
   <si>
-    <t>小水母鱼苗</t>
+    <t>锤头鲨鱼苗</t>
   </si>
   <si>
     <t>prop_fishbowl_fry10</t>
@@ -2622,7 +2622,7 @@
     <t>prop_fishbowl_fry_fragment9</t>
   </si>
   <si>
-    <t>小水母碎片</t>
+    <t>锤头鲨碎片</t>
   </si>
   <si>
     <t>prop_fishbowl_fry_fragment10</t>
@@ -2811,7 +2811,7 @@
     <t>prop_fishbowl_fish9</t>
   </si>
   <si>
-    <t>小水母</t>
+    <t>锤头鲨</t>
   </si>
   <si>
     <t>prop_fishbowl_fish10</t>
@@ -3450,8 +3450,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3529,7 +3529,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3537,6 +3544,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3550,15 +3565,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3572,37 +3581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3624,8 +3604,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3633,6 +3621,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3660,6 +3655,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3719,7 +3719,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3737,25 +3785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3773,37 +3809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3827,6 +3839,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3839,19 +3857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3863,31 +3881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3927,17 +3927,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3972,11 +3966,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4008,8 +4008,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4032,10 +4032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4044,137 +4044,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4627,9 +4627,9 @@
   <dimension ref="A1:Q325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F331" sqref="F331"/>
+      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_7.13/item_config.xlsx
+++ b/config_7.13/item_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1022">
   <si>
     <t>id|行号</t>
   </si>
@@ -3444,15 +3444,24 @@
   <si>
     <t>银骰子</t>
   </si>
+  <si>
+    <t>prop_qdlb_cjq_cjj</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_cjq_cjj</t>
+  </si>
+  <si>
+    <t>超值礼包抽奖券_cjj</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3514,14 +3523,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3542,24 +3551,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3570,22 +3578,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3604,32 +3596,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3643,6 +3620,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -3650,8 +3643,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3719,7 +3728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3731,7 +3746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3743,31 +3776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3779,25 +3788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3809,19 +3806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3833,31 +3830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3875,19 +3848,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3931,7 +3940,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3947,21 +3956,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3998,9 +3992,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4013,17 +4033,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4032,10 +4041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4044,133 +4053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4624,12 +4633,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q325"/>
+  <dimension ref="A1:Q326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
+      <selection pane="bottomLeft" activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15645,6 +15654,38 @@
         <v>1016</v>
       </c>
     </row>
+    <row r="326" s="8" customFormat="1" spans="1:10">
+      <c r="A326" s="3">
+        <v>325</v>
+      </c>
+      <c r="B326" s="10">
+        <v>328</v>
+      </c>
+      <c r="C326" s="30" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D326" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E326" s="8">
+        <v>1</v>
+      </c>
+      <c r="F326" s="30" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G326" s="8">
+        <v>0</v>
+      </c>
+      <c r="H326" s="8">
+        <v>33</v>
+      </c>
+      <c r="I326" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J326" s="30" t="s">
+        <v>1021</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q325">
     <extLst/>

--- a/config_7.13/item_config.xlsx
+++ b/config_7.13/item_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$326</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3460,8 +3460,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3523,44 +3523,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3573,32 +3543,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3622,22 +3596,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3652,8 +3634,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3667,8 +3665,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3728,6 +3728,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3740,7 +3854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3752,127 +3878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3884,19 +3890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3936,15 +3936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3960,16 +3951,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4001,17 +3992,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4021,6 +4006,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4041,10 +4041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4053,137 +4053,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4635,10 +4635,10 @@
   <sheetPr/>
   <dimension ref="A1:Q326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B332" sqref="B332"/>
+      <selection pane="bottomLeft" activeCell="I326" sqref="I326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15680,14 +15680,14 @@
         <v>33</v>
       </c>
       <c r="I326" s="30" t="s">
-        <v>1021</v>
+        <v>881</v>
       </c>
       <c r="J326" s="30" t="s">
         <v>1021</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q325">
+  <autoFilter ref="A1:Q326">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_7.13/item_config.xlsx
+++ b/config_7.13/item_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1019">
   <si>
     <t>id|行号</t>
   </si>
@@ -3382,9 +3382,6 @@
     <t>com_icon_cl</t>
   </si>
   <si>
-    <t>牛啤值</t>
-  </si>
-  <si>
     <t>用于参加排行榜</t>
   </si>
   <si>
@@ -3453,9 +3450,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3530,24 +3527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3560,8 +3542,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3576,34 +3581,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3611,6 +3590,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3630,10 +3617,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3645,6 +3632,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -3652,17 +3655,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3722,7 +3719,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3734,7 +3767,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3746,37 +3863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3788,109 +3881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3930,11 +3927,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3950,21 +3953,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3986,10 +3974,32 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4004,25 +4014,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4035,10 +4032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4047,31 +4044,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4080,104 +4080,101 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4630,9 +4627,9 @@
   <dimension ref="A1:Q325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
+      <selection pane="bottomLeft" activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15450,10 +15447,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="J319" s="14" t="s">
         <v>998</v>
-      </c>
-      <c r="J319" s="14" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -15464,16 +15461,16 @@
         <v>322</v>
       </c>
       <c r="C320" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="D320" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E320" s="10">
+        <v>1</v>
+      </c>
+      <c r="F320" s="10" t="s">
         <v>1000</v>
-      </c>
-      <c r="D320" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E320" s="10">
-        <v>1</v>
-      </c>
-      <c r="F320" s="10" t="s">
-        <v>1001</v>
       </c>
       <c r="G320" s="10">
         <v>0</v>
@@ -15482,10 +15479,10 @@
         <v>1</v>
       </c>
       <c r="I320" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J320" s="10" t="s">
         <v>1002</v>
-      </c>
-      <c r="J320" s="10" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -15496,16 +15493,16 @@
         <v>323</v>
       </c>
       <c r="C321" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D321" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E321" s="10">
+        <v>1</v>
+      </c>
+      <c r="F321" s="10" t="s">
         <v>1004</v>
-      </c>
-      <c r="D321" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E321" s="10">
-        <v>1</v>
-      </c>
-      <c r="F321" s="10" t="s">
-        <v>1005</v>
       </c>
       <c r="G321" s="10">
         <v>0</v>
@@ -15514,10 +15511,10 @@
         <v>1</v>
       </c>
       <c r="I321" s="10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J321" s="10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -15528,28 +15525,28 @@
         <v>324</v>
       </c>
       <c r="C322" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D322" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E322" s="10">
+        <v>1</v>
+      </c>
+      <c r="F322" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="D322" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E322" s="10">
-        <v>1</v>
-      </c>
-      <c r="F322" s="14" t="s">
+      <c r="G322" s="10">
+        <v>1</v>
+      </c>
+      <c r="H322" s="10">
+        <v>1</v>
+      </c>
+      <c r="I322" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="G322" s="10">
-        <v>1</v>
-      </c>
-      <c r="H322" s="10">
-        <v>1</v>
-      </c>
-      <c r="I322" s="14" t="s">
+      <c r="J322" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="J322" s="14" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -15560,28 +15557,28 @@
         <v>325</v>
       </c>
       <c r="C323" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D323" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E323" s="10">
+        <v>1</v>
+      </c>
+      <c r="F323" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="D323" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E323" s="10">
-        <v>1</v>
-      </c>
-      <c r="F323" s="14" t="s">
+      <c r="G323" s="10">
+        <v>1</v>
+      </c>
+      <c r="H323" s="10">
+        <v>1</v>
+      </c>
+      <c r="I323" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="G323" s="10">
-        <v>1</v>
-      </c>
-      <c r="H323" s="10">
-        <v>1</v>
-      </c>
-      <c r="I323" s="14" t="s">
+      <c r="J323" s="14" t="s">
         <v>1013</v>
-      </c>
-      <c r="J323" s="14" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="324" ht="15.75" spans="1:10">
@@ -15592,28 +15589,28 @@
         <v>326</v>
       </c>
       <c r="C324" s="41" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D324" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E324" s="10">
+        <v>1</v>
+      </c>
+      <c r="F324" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G324" s="10">
+        <v>1</v>
+      </c>
+      <c r="H324" s="10">
+        <v>1</v>
+      </c>
+      <c r="I324" s="10" t="s">
         <v>1015</v>
       </c>
-      <c r="D324" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E324" s="10">
-        <v>1</v>
-      </c>
-      <c r="F324" s="14" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G324" s="10">
-        <v>1</v>
-      </c>
-      <c r="H324" s="10">
-        <v>1</v>
-      </c>
-      <c r="I324" s="10" t="s">
+      <c r="J324" s="10" t="s">
         <v>1016</v>
-      </c>
-      <c r="J324" s="10" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="325" ht="15.75" spans="1:10">
@@ -15624,28 +15621,28 @@
         <v>327</v>
       </c>
       <c r="C325" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D325" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E325" s="10">
+        <v>1</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G325" s="10">
+        <v>1</v>
+      </c>
+      <c r="H325" s="10">
+        <v>1</v>
+      </c>
+      <c r="I325" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="D325" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E325" s="10">
-        <v>1</v>
-      </c>
-      <c r="F325" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G325" s="10">
-        <v>1</v>
-      </c>
-      <c r="H325" s="10">
-        <v>1</v>
-      </c>
-      <c r="I325" s="10" t="s">
-        <v>1019</v>
-      </c>
       <c r="J325" s="10" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/config_7.13/item_config.xlsx
+++ b/config_7.13/item_config.xlsx
@@ -2367,54 +2367,54 @@
     <t>3dby_icon_yu34</t>
   </si>
   <si>
+    <t>小海龟鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry10</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>狮子鱼鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry11</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>魔鬼鱼鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry12</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>虎鲨鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry13</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>锯齿鲨鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry14</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
     <t>锤头鲨鱼苗</t>
   </si>
   <si>
-    <t>prop_fishbowl_fry10</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-  </si>
-  <si>
-    <t>小章鱼鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry11</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-  </si>
-  <si>
-    <t>小海龟鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry12</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-  </si>
-  <si>
-    <t>狮子鱼鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry13</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-  </si>
-  <si>
-    <t>魔鬼鱼鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry14</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
-  </si>
-  <si>
-    <t>虎鲸鱼苗</t>
-  </si>
-  <si>
     <t>prop_fishbowl_fry15</t>
   </si>
   <si>
@@ -2622,39 +2622,39 @@
     <t>prop_fishbowl_fry_fragment9</t>
   </si>
   <si>
+    <t>小海龟碎片</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment10</t>
+  </si>
+  <si>
+    <t>狮子鱼碎片</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment11</t>
+  </si>
+  <si>
+    <t>魔鬼鱼碎片</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment12</t>
+  </si>
+  <si>
+    <t>虎鲨碎片</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment13</t>
+  </si>
+  <si>
+    <t>锯齿鲨碎片</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment14</t>
+  </si>
+  <si>
     <t>锤头鲨碎片</t>
   </si>
   <si>
-    <t>prop_fishbowl_fry_fragment10</t>
-  </si>
-  <si>
-    <t>小章鱼碎片</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry_fragment11</t>
-  </si>
-  <si>
-    <t>小海龟碎片</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry_fragment12</t>
-  </si>
-  <si>
-    <t>狮子鱼碎片</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry_fragment13</t>
-  </si>
-  <si>
-    <t>魔鬼鱼碎片</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry_fragment14</t>
-  </si>
-  <si>
-    <t>虎鲸碎片</t>
-  </si>
-  <si>
     <t>prop_fishbowl_fry_fragment15</t>
   </si>
   <si>
@@ -2811,37 +2811,37 @@
     <t>prop_fishbowl_fish9</t>
   </si>
   <si>
+    <t>小海龟</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish10</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish11</t>
+  </si>
+  <si>
+    <t>魔鬼鱼</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish12</t>
+  </si>
+  <si>
+    <t>虎鲨</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish13</t>
+  </si>
+  <si>
+    <t>锯齿鲨</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish14</t>
+  </si>
+  <si>
     <t>锤头鲨</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fish10</t>
-  </si>
-  <si>
-    <t>小章鱼</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fish11</t>
-  </si>
-  <si>
-    <t>小海龟</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fish12</t>
-  </si>
-  <si>
-    <t>狮子鱼</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fish13</t>
-  </si>
-  <si>
-    <t>魔鬼鱼</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fish14</t>
-  </si>
-  <si>
-    <t>虎鲸</t>
   </si>
   <si>
     <t>prop_fishbowl_fish15</t>
@@ -3459,10 +3459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3523,14 +3523,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3544,21 +3544,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3570,25 +3573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3602,18 +3588,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3657,15 +3643,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3728,7 +3728,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3740,85 +3830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3830,25 +3848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3866,12 +3866,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3884,19 +3878,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3951,17 +3951,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3983,29 +3977,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4021,6 +3995,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4041,10 +4041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4053,16 +4053,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4071,119 +4071,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4635,10 +4635,10 @@
   <sheetPr/>
   <dimension ref="A1:Q326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I326" sqref="I326"/>
+      <selection pane="bottomLeft" activeCell="I231" sqref="I231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_7.13/item_config.xlsx
+++ b/config_7.13/item_config.xlsx
@@ -2364,52 +2364,52 @@
     <t>prop_fishbowl_fry9</t>
   </si>
   <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>小海龟鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry10</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>狮子鱼鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry11</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>魔鬼鱼鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry12</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
+    <t>虎鲨鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry13</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>锯齿鲨鱼苗</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry14</t>
+  </si>
+  <si>
     <t>3dby_icon_yu34</t>
-  </si>
-  <si>
-    <t>小海龟鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry10</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-  </si>
-  <si>
-    <t>狮子鱼鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry11</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-  </si>
-  <si>
-    <t>魔鬼鱼鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry12</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-  </si>
-  <si>
-    <t>虎鲨鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry13</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-  </si>
-  <si>
-    <t>锯齿鲨鱼苗</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry14</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
   </si>
   <si>
     <t>锤头鲨鱼苗</t>
@@ -3459,10 +3459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3523,14 +3523,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3544,6 +3575,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3551,23 +3589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3588,18 +3610,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3612,34 +3635,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3662,13 +3669,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3728,6 +3728,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3740,13 +3758,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3758,13 +3806,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3776,37 +3866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3818,85 +3884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3936,6 +3936,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3954,8 +3963,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3975,15 +3984,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3995,6 +3995,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4024,15 +4033,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4041,10 +4041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4053,137 +4053,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4636,9 +4636,9 @@
   <dimension ref="A1:Q326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I231" sqref="I231"/>
+      <selection pane="bottomLeft" activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
